--- a/dist/cosasportal_emx2.xlsx
+++ b/dist/cosasportal_emx2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>template</t>
   </si>
@@ -22,6 +22,9 @@
     <t>genderidentity</t>
   </si>
   <si>
+    <t>genderatbirth</t>
+  </si>
+  <si>
     <t>biospecimentype</t>
   </si>
   <si>
@@ -67,19 +70,22 @@
     <t>Available in place of something else.</t>
   </si>
   <si>
-    <t>mappings for genderidentity</t>
-  </si>
-  <si>
-    <t>mappings for biospecimen type</t>
-  </si>
-  <si>
-    <t>mappings for reason for sampling</t>
-  </si>
-  <si>
-    <t>mappings for sequencer information</t>
-  </si>
-  <si>
-    <t>mappings for genome build</t>
+    <t>mappings for 'Gender identity'</t>
+  </si>
+  <si>
+    <t>mappings for 'Gender at birth'</t>
+  </si>
+  <si>
+    <t>mappings for 'Biospecimen type'</t>
+  </si>
+  <si>
+    <t>mappings for 'Reason for sampling'</t>
+  </si>
+  <si>
+    <t>mappings for 'Sequencer information'</t>
+  </si>
+  <si>
+    <t>mappings for 'Genome build'</t>
   </si>
   <si>
     <t>tableName</t>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,37 +486,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -518,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -526,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -538,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -549,16 +555,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -566,16 +572,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -586,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -597,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -608,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -619,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -630,7 +636,18 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/dist/cosasportal_emx2.xlsx
+++ b/dist/cosasportal_emx2.xlsx
@@ -14,78 +14,456 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="161">
   <si>
     <t>template</t>
   </si>
   <si>
-    <t>genderidentity</t>
-  </si>
-  <si>
-    <t>genderatbirth</t>
-  </si>
-  <si>
-    <t>biospecimentype</t>
-  </si>
-  <si>
-    <t>samplereason</t>
-  </si>
-  <si>
-    <t>sequencerinfo</t>
-  </si>
-  <si>
-    <t>genomebuild</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>toAlternate</t>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>diagnoses</t>
+  </si>
+  <si>
+    <t>samples</t>
+  </si>
+  <si>
+    <t>labs_array_adlas</t>
+  </si>
+  <si>
+    <t>labs_array_darwin</t>
+  </si>
+  <si>
+    <t>labs_ngs_adlas</t>
+  </si>
+  <si>
+    <t>labs_ngs_darwin</t>
+  </si>
+  <si>
+    <t>cartagenia</t>
+  </si>
+  <si>
+    <t>files</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>recordMetadata</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>dateRecordCreated</t>
+  </si>
+  <si>
+    <t>recordCreatedBy</t>
+  </si>
+  <si>
+    <t>UMCG_NUMBER</t>
+  </si>
+  <si>
+    <t>OVERLIJDENSDATUM</t>
+  </si>
+  <si>
+    <t>FAMILIENUMMER</t>
+  </si>
+  <si>
+    <t>GEBOORTEDATUM</t>
+  </si>
+  <si>
+    <t>GESLACHT</t>
+  </si>
+  <si>
+    <t>FAMILIELEDEN</t>
+  </si>
+  <si>
+    <t>UMCG_MOEDER</t>
+  </si>
+  <si>
+    <t>UMCG_VADER</t>
+  </si>
+  <si>
+    <t>HOOFDDIAGNOSE</t>
+  </si>
+  <si>
+    <t>HOOFDDIAGNOSE_ZEKERHEID</t>
+  </si>
+  <si>
+    <t>EXTRA_DIAGNOSE</t>
+  </si>
+  <si>
+    <t>EXTRA_DIAGNOSE_ZEKERHEID</t>
+  </si>
+  <si>
+    <t>DATUM_EERSTE_CONSULT</t>
+  </si>
+  <si>
+    <t>OND_ID</t>
+  </si>
+  <si>
+    <t>UMCG_NUMMER</t>
+  </si>
+  <si>
+    <t>ADVVRG_ID</t>
+  </si>
+  <si>
+    <t>ADVIESVRAAG_DATUM</t>
+  </si>
+  <si>
+    <t>MONSTER_ID</t>
+  </si>
+  <si>
+    <t>TEST_CODE</t>
+  </si>
+  <si>
+    <t>TEST_OMS</t>
+  </si>
+  <si>
+    <t>DNA_NUMMER</t>
+  </si>
+  <si>
+    <t>MATERIAAL</t>
+  </si>
+  <si>
+    <t>EINDUITSLAGTEKST</t>
+  </si>
+  <si>
+    <t>EINDUITSLAG_DATUM</t>
+  </si>
+  <si>
+    <t>ADVIESVRAAGUITSLAG_ID</t>
+  </si>
+  <si>
+    <t>ADVIESVRAAGUITSLAG_CODE</t>
+  </si>
+  <si>
+    <t>AANDOENING_CODE</t>
+  </si>
+  <si>
+    <t>LABUITSLAGTEKST</t>
+  </si>
+  <si>
+    <t>LABUITSLAG_COMMENTAAR</t>
+  </si>
+  <si>
+    <t>LABUITSLAG_DATUM</t>
+  </si>
+  <si>
+    <t>LABUITSLAG_ID</t>
+  </si>
+  <si>
+    <t>LABUITSLAG_CODE</t>
+  </si>
+  <si>
+    <t>LABRESULTS</t>
+  </si>
+  <si>
+    <t>AUTHORISED</t>
+  </si>
+  <si>
+    <t>TEST_ID</t>
+  </si>
+  <si>
+    <t>SGA_CHROMOSOME_REGION</t>
+  </si>
+  <si>
+    <t>SGA_CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>SGA_CYTOBAND</t>
+  </si>
+  <si>
+    <t>SGA_DECIPHER_SYNDROMES</t>
+  </si>
+  <si>
+    <t>SGA_DGV_SIMILARITY</t>
+  </si>
+  <si>
+    <t>SGA_EVENT</t>
+  </si>
+  <si>
+    <t>SGA_EVIDENCE_SCORE</t>
+  </si>
+  <si>
+    <t>SGA_HMRELATED_GENES</t>
+  </si>
+  <si>
+    <t>SGA_HMRELATED_GENES_COUNT</t>
+  </si>
+  <si>
+    <t>SGA_LENGTH</t>
+  </si>
+  <si>
+    <t>SGA_MOSAIC</t>
+  </si>
+  <si>
+    <t>SGA_MOSAIC_PERCENTAGE</t>
+  </si>
+  <si>
+    <t>SGA_NO_OF_PROBES</t>
+  </si>
+  <si>
+    <t>SGA_NOTES</t>
+  </si>
+  <si>
+    <t>SGA_OMIM_MORBID_MAP</t>
+  </si>
+  <si>
+    <t>SGA_OMIM_MORBIDMAP_COUNT</t>
+  </si>
+  <si>
+    <t>SGA_PROBE_MEDIAN</t>
+  </si>
+  <si>
+    <t>SGA_REFSEQ_CODING_GENES</t>
+  </si>
+  <si>
+    <t>SGA_REFSEQ_CODING_GENES_COUNT</t>
+  </si>
+  <si>
+    <t>SGA_REGIONS_UMCG_CNV_NL_COUNT</t>
+  </si>
+  <si>
+    <t>SGA_SIMILAR_PREVIOUS_CASES</t>
+  </si>
+  <si>
+    <t>SGA_OVERERVING</t>
+  </si>
+  <si>
+    <t>UmcgNr</t>
+  </si>
+  <si>
+    <t>TestId</t>
+  </si>
+  <si>
+    <t>TestDatum</t>
+  </si>
+  <si>
+    <t>Indicatie</t>
+  </si>
+  <si>
+    <t>BatchNaam</t>
+  </si>
+  <si>
+    <t>CallRate</t>
+  </si>
+  <si>
+    <t>StandaardDeviatie</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>MUTATIE</t>
+  </si>
+  <si>
+    <t>KLASSE</t>
+  </si>
+  <si>
+    <t>NM_NUMMER</t>
+  </si>
+  <si>
+    <t>LRGS_NUMMER</t>
+  </si>
+  <si>
+    <t>AMPLICON</t>
+  </si>
+  <si>
+    <t>ALLELFREQUENTIE</t>
+  </si>
+  <si>
+    <t>OVERERVING</t>
+  </si>
+  <si>
+    <t>Sequencer</t>
+  </si>
+  <si>
+    <t>PrepKit</t>
+  </si>
+  <si>
+    <t>SequencingType</t>
+  </si>
+  <si>
+    <t>SeqType</t>
+  </si>
+  <si>
+    <t>CapturingKit</t>
+  </si>
+  <si>
+    <t>GenomeBuild</t>
+  </si>
+  <si>
+    <t>subjectID</t>
+  </si>
+  <si>
+    <t>belongsToMother</t>
+  </si>
+  <si>
+    <t>belongsToFamily</t>
+  </si>
+  <si>
+    <t>isFetus</t>
+  </si>
+  <si>
+    <t>alternativeIdentifiers</t>
+  </si>
+  <si>
+    <t>observedPhenotype</t>
+  </si>
+  <si>
+    <t>umcgID</t>
+  </si>
+  <si>
+    <t>familyID</t>
+  </si>
+  <si>
+    <t>dnaID</t>
+  </si>
+  <si>
+    <t>testID</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>filepath</t>
+  </si>
+  <si>
+    <t>filetype</t>
+  </si>
+  <si>
+    <t>md5</t>
+  </si>
+  <si>
+    <t>dateCreated</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25516</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C65107</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25415</t>
-  </si>
-  <si>
-    <t>attribute template for mapping tables</t>
-  </si>
-  <si>
-    <t>Used to indicate a specified place or time as a starting point; used to indicate a source, cause, agent, or instrument.</t>
-  </si>
-  <si>
-    <t>Used as a function word to indicate direction, purpose, or movement.</t>
-  </si>
-  <si>
-    <t>Available in place of something else.</t>
-  </si>
-  <si>
-    <t>mappings for 'Gender identity'</t>
-  </si>
-  <si>
-    <t>mappings for 'Gender at birth'</t>
-  </si>
-  <si>
-    <t>mappings for 'Biospecimen type'</t>
-  </si>
-  <si>
-    <t>mappings for 'Reason for sampling'</t>
-  </si>
-  <si>
-    <t>mappings for 'Sequencer information'</t>
-  </si>
-  <si>
-    <t>mappings for 'Genome build'</t>
+    <t>heading</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25364</t>
+  </si>
+  <si>
+    <t>http://semanticscience.org/resource/SIO_001330</t>
+  </si>
+  <si>
+    <t>https://w3id.org/reproduceme#ProcessedData</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164483</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C42628</t>
+  </si>
+  <si>
+    <t>attribute template for staging tables</t>
+  </si>
+  <si>
+    <t>auto generated row identifier</t>
+  </si>
+  <si>
+    <t>metadata is data that provides information about data.</t>
+  </si>
+  <si>
+    <t>The data which is modified and processed for analysis or other experiments. If True, data from the row has been imported into COSAS.</t>
+  </si>
+  <si>
+    <t>The date on which the activity or entity is created.</t>
+  </si>
+  <si>
+    <t>Indicates the person or authoritative body who brought the item into existence.</t>
+  </si>
+  <si>
+    <t>Raw metadata for patients and families</t>
+  </si>
+  <si>
+    <t>Raw diagnostic metadata</t>
+  </si>
+  <si>
+    <t>Raw data table for samples</t>
+  </si>
+  <si>
+    <t>Raw array metadata from ADLAS</t>
+  </si>
+  <si>
+    <t>Raw array metadata from Darwin</t>
+  </si>
+  <si>
+    <t>Raw NGS data from ADLAS</t>
+  </si>
+  <si>
+    <t>Raw NSG metadata from Darwin</t>
+  </si>
+  <si>
+    <t>Processed Cartagenia CNV bench data</t>
+  </si>
+  <si>
+    <t>Cartagenia identifier</t>
+  </si>
+  <si>
+    <t>parsed UMCG number</t>
+  </si>
+  <si>
+    <t>parsed maternal ID (UMCG Number)</t>
+  </si>
+  <si>
+    <t>family number (may not be accurate)</t>
+  </si>
+  <si>
+    <t>computed fetus status</t>
+  </si>
+  <si>
+    <t>additional UMCG numbers detected in column 'id'</t>
+  </si>
+  <si>
+    <t>HPO terms provided by Cartagenia</t>
+  </si>
+  <si>
+    <t>Raw file metadata</t>
+  </si>
+  <si>
+    <t>auto generated identifier</t>
+  </si>
+  <si>
+    <t>Internal patient identifier</t>
+  </si>
+  <si>
+    <t>family identifier of the patient</t>
+  </si>
+  <si>
+    <t>sample identifier</t>
+  </si>
+  <si>
+    <t>test code that indicates the lab procedure</t>
+  </si>
+  <si>
+    <t>name of the file</t>
+  </si>
+  <si>
+    <t>location of the file</t>
+  </si>
+  <si>
+    <t>file format</t>
+  </si>
+  <si>
+    <t>checksum of the file</t>
+  </si>
+  <si>
+    <t>date the file was created</t>
   </si>
   <si>
     <t>tableName</t>
@@ -478,7 +856,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,37 +864,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -524,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -532,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -544,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -555,16 +933,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -572,89 +950,1466 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
         <v>0</v>
       </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
         <v>0</v>
       </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B83" t="s">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
-        <v>23</v>
+      <c r="K83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>79</v>
+      </c>
+      <c r="D90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>80</v>
+      </c>
+      <c r="D91" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>81</v>
+      </c>
+      <c r="D92" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>82</v>
+      </c>
+      <c r="D93" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>83</v>
+      </c>
+      <c r="D94" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>85</v>
+      </c>
+      <c r="D96" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>73</v>
+      </c>
+      <c r="D100" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>74</v>
+      </c>
+      <c r="D101" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>75</v>
+      </c>
+      <c r="D102" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>87</v>
+      </c>
+      <c r="D103" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>90</v>
+      </c>
+      <c r="D106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>76</v>
+      </c>
+      <c r="D108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>92</v>
+      </c>
+      <c r="D109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>77</v>
+      </c>
+      <c r="D110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>78</v>
+      </c>
+      <c r="D111" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="K112" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>108</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="K113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>93</v>
+      </c>
+      <c r="D114" t="s">
+        <v>108</v>
+      </c>
+      <c r="K114" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>94</v>
+      </c>
+      <c r="D115" t="s">
+        <v>108</v>
+      </c>
+      <c r="K115" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" t="s">
+        <v>108</v>
+      </c>
+      <c r="K116" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>96</v>
+      </c>
+      <c r="D117" t="s">
+        <v>110</v>
+      </c>
+      <c r="K117" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>97</v>
+      </c>
+      <c r="D118" t="s">
+        <v>108</v>
+      </c>
+      <c r="K118" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>98</v>
+      </c>
+      <c r="D119" t="s">
+        <v>112</v>
+      </c>
+      <c r="K119" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="K120" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" t="s">
+        <v>108</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="K121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>99</v>
+      </c>
+      <c r="D122" t="s">
+        <v>108</v>
+      </c>
+      <c r="K122" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>100</v>
+      </c>
+      <c r="D123" t="s">
+        <v>108</v>
+      </c>
+      <c r="K123" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>101</v>
+      </c>
+      <c r="D124" t="s">
+        <v>108</v>
+      </c>
+      <c r="K124" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>102</v>
+      </c>
+      <c r="D125" t="s">
+        <v>108</v>
+      </c>
+      <c r="K125" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>103</v>
+      </c>
+      <c r="D126" t="s">
+        <v>108</v>
+      </c>
+      <c r="K126" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>104</v>
+      </c>
+      <c r="D127" t="s">
+        <v>108</v>
+      </c>
+      <c r="K127" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>105</v>
+      </c>
+      <c r="D128" t="s">
+        <v>108</v>
+      </c>
+      <c r="K128" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>106</v>
+      </c>
+      <c r="D129" t="s">
+        <v>108</v>
+      </c>
+      <c r="K129" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>107</v>
+      </c>
+      <c r="D130" t="s">
+        <v>108</v>
+      </c>
+      <c r="K130" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
     <hyperlink ref="J4" r:id="rId2"/>
-    <hyperlink ref="J5" r:id="rId3"/>
+    <hyperlink ref="J5" r:id="rId3" location="ProcessedData"/>
+    <hyperlink ref="J6" r:id="rId4"/>
+    <hyperlink ref="J7" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
